--- a/docs/race-features/race-features.xlsx
+++ b/docs/race-features/race-features.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7335" tabRatio="724" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7335" tabRatio="724" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="race-features" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="285">
   <si>
     <t>race_id</t>
   </si>
@@ -789,21 +789,12 @@
     <t>Agility</t>
   </si>
   <si>
-    <t xml:space="preserve"> -2 smarts</t>
-  </si>
-  <si>
     <t>Smarts</t>
   </si>
   <si>
     <t>Spirit</t>
   </si>
   <si>
-    <t xml:space="preserve"> +2 tracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1 smarts</t>
-  </si>
-  <si>
     <t>Overconfident</t>
   </si>
   <si>
@@ -819,21 +810,9 @@
     <t>Bloodthirsty</t>
   </si>
   <si>
-    <t xml:space="preserve"> d6 riding</t>
-  </si>
-  <si>
-    <t>d6 repair</t>
-  </si>
-  <si>
-    <t>d6 riding</t>
-  </si>
-  <si>
     <t>OVERCONFIDENT</t>
   </si>
   <si>
-    <t>HEROIC || OVERCONFIDENT</t>
-  </si>
-  <si>
     <t>HEROIC</t>
   </si>
   <si>
@@ -846,7 +825,61 @@
     <t>MAJOR</t>
   </si>
   <si>
-    <t>how to differentiate between this and a starting die type???</t>
+    <t>ppe_adjustment = 5</t>
+  </si>
+  <si>
+    <t>parry_adjustment = 1</t>
+  </si>
+  <si>
+    <t>toughness_adjustment = 2</t>
+  </si>
+  <si>
+    <t>charisma_adjustment = 1</t>
+  </si>
+  <si>
+    <t>restricts_psionics_use = true</t>
+  </si>
+  <si>
+    <t>restricts_magic_use = true</t>
+  </si>
+  <si>
+    <t>pace_adjustment = 2</t>
+  </si>
+  <si>
+    <t>restricts_cybernetics_use = true</t>
+  </si>
+  <si>
+    <t>pace_adjustment = -2</t>
+  </si>
+  <si>
+    <t>isp_adjustment = 5</t>
+  </si>
+  <si>
+    <t>sql_end</t>
+  </si>
+  <si>
+    <t>sql_start</t>
+  </si>
+  <si>
+    <t>full sql</t>
+  </si>
+  <si>
+    <t>sql columns</t>
+  </si>
+  <si>
+    <t>SMARTS</t>
+  </si>
+  <si>
+    <t>TRACKING</t>
+  </si>
+  <si>
+    <t>RIDING</t>
+  </si>
+  <si>
+    <t>REPAIR</t>
+  </si>
+  <si>
+    <t>D6</t>
   </si>
 </sst>
 </file>
@@ -3176,64 +3209,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="2" max="3" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"INSERT INTO `race_ability_skill_adjustment` (race_ability, skill_type, bonus) VALUES (@"&amp;A5&amp;"_ID, '"&amp;C2&amp;"', "&amp;B2&amp;");"</f>
+        <v>INSERT INTO `race_ability_skill_adjustment` (race_ability, skill_type, bonus) VALUES (@PSISTALKER_ANIMAL_EMPATHY_ID, 'TRACKING', 2);</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"INSERT INTO `race_ability_skill_default` (race_ability, skill_type, starting_die_type) VALUES (@"&amp;A5&amp;"_ID, '"&amp;C5&amp;"', '"&amp;B5&amp;"');"</f>
+        <v>INSERT INTO `race_ability_skill_default` (race_ability, skill_type, starting_die_type) VALUES (@PSISTALKER_ANIMAL_EMPATHY_ID, 'RIDING', 'D6');</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>202</v>
       </c>
-      <c r="B3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6:D7" si="0">"INSERT INTO `race_ability_skill_default` (race_ability, skill_type, starting_die_type) VALUES (@"&amp;A6&amp;"_ID, '"&amp;C6&amp;"', '"&amp;B6&amp;"');"</f>
+        <v>INSERT INTO `race_ability_skill_default` (race_ability, skill_type, starting_die_type) VALUES (@TRIMADORE_TECHNICALLY_SAVVY_ID, 'REPAIR', 'D6');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>206</v>
       </c>
-      <c r="B4" t="s">
-        <v>266</v>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `race_ability_skill_default` (race_ability, skill_type, starting_die_type) VALUES (@SIMVAN_ANIMAL_EMPATHY_ID, 'RIDING', 'D6');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,74 +3309,112 @@
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"INSERT INTO `race_ability_hindrance` (race_ability, hindrance, severity_type) VALUES (@"&amp;A1&amp;"_ID, (SELECT id FROM `hindrance` WHERE type = '"&amp;C1&amp;"'), '"&amp;D1&amp;"');"</f>
+        <v>INSERT INTO `race_ability_hindrance` (race_ability, hindrance, severity_type) VALUES (@QUICKFLEX_SUPREME_CONFIDENCE_ID, (SELECT id FROM `hindrance` WHERE type = 'OVERCONFIDENT'), 'MAJOR');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
       <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E6" si="0">"INSERT INTO `race_ability_hindrance` (race_ability, hindrance, severity_type) VALUES (@"&amp;A2&amp;"_ID, (SELECT id FROM `hindrance` WHERE type = '"&amp;C2&amp;"'), '"&amp;D2&amp;"');"</f>
+        <v>INSERT INTO `race_ability_hindrance` (race_ability, hindrance, severity_type) VALUES (@GRACKLETOOTH_JUST_HOW_I_WAS_RAISED_ID, (SELECT id FROM `hindrance` WHERE type = 'HEROIC'), 'MAJOR');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `race_ability_hindrance` (race_ability, hindrance, severity_type) VALUES (@GRACKLETOOTH_JUST_HOW_I_WAS_RAISED_ID, (SELECT id FROM `hindrance` WHERE type = 'OVERCONFIDENT'), 'MAJOR');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `race_ability_hindrance` (race_ability, hindrance, severity_type) VALUES (@LYNSRIAL_HUNTED_BY_THE_COALITION_ID, (SELECT id FROM `hindrance` WHERE type = 'WANTED'), 'MAJOR');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `race_ability_hindrance` (race_ability, hindrance, severity_type) VALUES (@LYNSRIAL_INHERENT_NATURE_ID, (SELECT id FROM `hindrance` WHERE type = 'HEROIC'), 'MAJOR');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" t="s">
-        <v>272</v>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `race_ability_hindrance` (race_ability, hindrance, severity_type) VALUES (@SIMVAN_APEX_PREDATOR_ID, (SELECT id FROM `hindrance` WHERE type = 'BLOODTHIRSTY'), 'MAJOR');</v>
       </c>
     </row>
   </sheetData>
@@ -3320,10 +3424,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,28 +3435,49 @@
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>-2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" t="str">
+        <f>"INSERT INTO `race_ability_attr_adjustment` (race_ability, attr_type, bonus) VALUES (@"&amp;A1&amp;"_ID, '"&amp;C1&amp;"', "&amp;B1&amp;");"</f>
+        <v>INSERT INTO `race_ability_attr_adjustment` (race_ability, attr_type, bonus) VALUES (@ALTARA_INSTILLED_IGNORANCE_ID, 'SMARTS', -2);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D3" si="0">"INSERT INTO `race_ability_attr_adjustment` (race_ability, attr_type, bonus) VALUES (@"&amp;A2&amp;"_ID, '"&amp;C2&amp;"', "&amp;B2&amp;");"</f>
+        <v>INSERT INTO `race_ability_attr_adjustment` (race_ability, attr_type, bonus) VALUES (@QUICKFLEX_SHORT_ATTENTION_SPAN_ID, 'SMARTS', -1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>213</v>
       </c>
-      <c r="B3" t="s">
-        <v>258</v>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `race_ability_attr_adjustment` (race_ability, attr_type, bonus) VALUES (@SIMVAN_INSTINCTS_OVER_INTELLECT_ID, 'SMARTS', -1);</v>
       </c>
     </row>
   </sheetData>
@@ -3362,147 +3487,401 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" t="s">
+        <v>277</v>
+      </c>
+      <c r="K1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" t="str">
+        <f>H2&amp;C2&amp;K2</f>
+        <v>UPDATE `race_ability` SET ppe_adjustment = 5 WHERE race_ability_type = 'DNORR_NATURAL_ARCANE_AFFINITY' ;</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"UPDATE `race_ability` SET "</f>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K2" t="str">
+        <f>" WHERE race_ability_type = '"&amp;A2&amp;"' ;"</f>
+        <v xml:space="preserve"> WHERE race_ability_type = 'DNORR_NATURAL_ARCANE_AFFINITY' ;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F17" si="0">H3&amp;C3&amp;K3</f>
+        <v>UPDATE `race_ability` SET charisma_adjustment = 1 WHERE race_ability_type = 'DNORR_PERSONABLE' ;</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H17" si="1">"UPDATE `race_ability` SET "</f>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K17" si="2">" WHERE race_ability_type = '"&amp;A3&amp;"' ;"</f>
+        <v xml:space="preserve"> WHERE race_ability_type = 'DNORR_PERSONABLE' ;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET restricts_psionics_use = true WHERE race_ability_type = 'DNORR_RESTRICTED_PATH' ;</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'DNORR_RESTRICTED_PATH' ;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET restricts_psionics_use = true WHERE race_ability_type = 'DOGBOY_RESTRICTED_PATHS' ;</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'DOGBOY_RESTRICTED_PATHS' ;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>98</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET parry_adjustment = 1 WHERE race_ability_type = 'QUICKFLEX_ELUSIVE' ;</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'QUICKFLEX_ELUSIVE' ;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>101</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET pace_adjustment = 2 WHERE race_ability_type = 'QUICKFLEX_FAST' ;</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'QUICKFLEX_FAST' ;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET restricts_magic_use = true WHERE race_ability_type = 'QUICKFLEX_RESTRICTED_PATH' ;</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'QUICKFLEX_RESTRICTED_PATH' ;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>118</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET pace_adjustment = 2 WHERE race_ability_type = 'PSISTALKER_FAST' ;</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'PSISTALKER_FAST' ;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>130</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET restricts_magic_use = true WHERE race_ability_type = 'PSISTALKER_RESTRICTED_PATHS' ;</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'PSISTALKER_RESTRICTED_PATHS' ;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>133</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET restricts_cybernetics_use = true WHERE race_ability_type = 'GRACKLETOOTH_CYBER_RESISTANT' ;</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'GRACKLETOOTH_CYBER_RESISTANT' ;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
       <c r="B12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET restricts_magic_use = true WHERE race_ability_type = 'GRACKLETOOTH_RESTRICTED_PATHS' ;</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'GRACKLETOOTH_RESTRICTED_PATHS' ;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET restricts_cybernetics_use = true WHERE race_ability_type = 'GRACKLETOOTH_RESTRICTED_PATHS' ;</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'GRACKLETOOTH_RESTRICTED_PATHS' ;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>156</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET toughness_adjustment = 2 WHERE race_ability_type = 'GRACKLETOOTH_SIZE_2' ;</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'GRACKLETOOTH_SIZE_2' ;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>160</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET restricts_cybernetics_use = true WHERE race_ability_type = 'LYNSRIAL_CYBER_RESISTANT' ;</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'LYNSRIAL_CYBER_RESISTANT' ;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>182</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET pace_adjustment = -2 WHERE race_ability_type = 'LYNSRIAL_POOR_GROUND_SPEED' ;</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'LYNSRIAL_POOR_GROUND_SPEED' ;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>221</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>250</v>
       </c>
-      <c r="C16" t="s">
-        <v>226</v>
+      <c r="C17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE `race_ability` SET isp_adjustment = 5 WHERE race_ability_type = 'SIMVAN_NATURAL_PSIONICS' ;</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">UPDATE `race_ability` SET </v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> WHERE race_ability_type = 'SIMVAN_NATURAL_PSIONICS' ;</v>
       </c>
     </row>
   </sheetData>
@@ -3512,108 +3891,212 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="144.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="str">
+        <f>UPPER(B1)</f>
+        <v>AGILITY</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>"INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@"&amp;A1&amp;"_ID, '"&amp;C1&amp;"');"</f>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@ALTARA_GENETIC_ENGINEERING_ID, 'AGILITY');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C11" si="0">UPPER(B2)</f>
+        <v>STRENGTH</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D11" si="1">"INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@"&amp;A2&amp;"_ID, '"&amp;C2&amp;"');"</f>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@ALTARA_GENETIC_ENGINEERING_ID, 'STRENGTH');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>VIGOR</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@ALTARA_GENETIC_ENGINEERING_ID, 'VIGOR');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>SMARTS</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@DNORR_INTELLIGENT_AND_SPIRITUAL_ID, 'SMARTS');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>SPIRIT</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@DNORR_INTELLIGENT_AND_SPIRITUAL_ID, 'SPIRIT');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>AGILITY</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@QUICKFLEX_AGILE_ID, 'AGILITY');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>AGILITY</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@QUICKFLEX_AGILE_ID, 'AGILITY');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>STRENGTH</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@GRACKLETOOTH_POWERFUL_ID, 'STRENGTH');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>STRENGTH</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@GRACKLETOOTH_POWERFUL_ID, 'STRENGTH');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>145</v>
       </c>
       <c r="B10" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>VIGOR</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@GRACKLETOOTH_POWERFUL_ID, 'VIGOR');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>188</v>
       </c>
       <c r="B11" t="s">
         <v>251</v>
       </c>
-    </row>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>STRENGTH</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `race_ability_attr_default` (race_ability, attribute) VALUES (@LYNSRIAL_STRONG_ID, 'STRENGTH');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3622,7 +4105,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,8 +4135,8 @@
         <v>235</v>
       </c>
       <c r="E2" t="str">
-        <f>"INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@"&amp;A2&amp;"_ID, (SELECT id FROM edge WHERE type = '"&amp;D2&amp;"'));"</f>
-        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@ALTARA_ATTRACTIVE_ID, (SELECT id FROM edge WHERE type = 'ATTRACTIVE'));</v>
+        <f>"INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@"&amp;A2&amp;"_ID, (SELECT id FROM edge WHERE edge_type = '"&amp;D2&amp;"'));"</f>
+        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@ALTARA_ATTRACTIVE_ID, (SELECT id FROM edge WHERE edge_type = 'ATTRACTIVE'));</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3667,8 +4150,8 @@
         <v>236</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E9" si="0">"INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@"&amp;A3&amp;"_ID, (SELECT id FROM edge WHERE type = '"&amp;D3&amp;"'));"</f>
-        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@ALTARA_SUPERIOR_SENSES_ID, (SELECT id FROM edge WHERE type = 'ALERTNESS'));</v>
+        <f t="shared" ref="E3:E9" si="0">"INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@"&amp;A3&amp;"_ID, (SELECT id FROM edge WHERE edge_type = '"&amp;D3&amp;"'));"</f>
+        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@ALTARA_SUPERIOR_SENSES_ID, (SELECT id FROM edge WHERE edge_type = 'ALERTNESS'));</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3686,7 +4169,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@FENNODI_NATURAL_PSIONICS_ID, (SELECT id FROM edge WHERE type = 'ARCANE_BACKGROUND_PSIONICS'));</v>
+        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@FENNODI_NATURAL_PSIONICS_ID, (SELECT id FROM edge WHERE edge_type = 'ARCANE_BACKGROUND_PSIONICS'));</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3701,7 +4184,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@QUICKFLEX_AMBIDEXTERITY_ID, (SELECT id FROM edge WHERE type = 'AMBIDEXTROUS'));</v>
+        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@QUICKFLEX_AMBIDEXTERITY_ID, (SELECT id FROM edge WHERE edge_type = 'AMBIDEXTROUS'));</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3716,7 +4199,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@PSISTALKER_AMBIDEXTERITY_ID, (SELECT id FROM edge WHERE type = 'AMBIDEXTROUS'));</v>
+        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@PSISTALKER_AMBIDEXTERITY_ID, (SELECT id FROM edge WHERE edge_type = 'AMBIDEXTROUS'));</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3731,7 +4214,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@TRIMADORE_MECHANICAL_SAVANT_ID, (SELECT id FROM edge WHERE type = 'MR_FIX_IT'));</v>
+        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@TRIMADORE_MECHANICAL_SAVANT_ID, (SELECT id FROM edge WHERE edge_type = 'MR_FIX_IT'));</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3746,7 +4229,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@SIMVAN_ANIMAL_EMPATHY_ID, (SELECT id FROM edge WHERE type = 'BEAST_MASTER'));</v>
+        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@SIMVAN_ANIMAL_EMPATHY_ID, (SELECT id FROM edge WHERE edge_type = 'BEAST_MASTER'));</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3764,7 +4247,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@SIMVAN_NATURAL_PSIONICS_ID, (SELECT id FROM edge WHERE type = 'ARCANE_BACKGROUND_PSIONICS'));</v>
+        <v>INSERT INTO `race_ability_edge` (race_ability, edge) VALUES (@SIMVAN_NATURAL_PSIONICS_ID, (SELECT id FROM edge WHERE edge_type = 'ARCANE_BACKGROUND_PSIONICS'));</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
